--- a/biology/Médecine/Périoste/Périoste.xlsx
+++ b/biology/Médecine/Périoste/Périoste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9rioste</t>
+          <t>Périoste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le périoste est la couche fibreuse qui engaine les pièces osseuses sur leur surface externe à l’exception de leurs surfaces articulaires recouvertes de cartilage articulaire.
 un ensemble de couches de la périphérie des os longs et des os plats en dehors des surfaces articulaires et qui assurent la croissance en épaisseur. On parle de « croissance périostée en largeur ».
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A9rioste</t>
+          <t>Périoste</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le périoste est composé d'une face externe en contact avec les muscles et les tendons et d'une face profonde adhérente à l'os cortical.
 Son épaisseur est en moyenne de 2 mm est se divise en trois couches :
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P%C3%A9rioste</t>
+          <t>Périoste</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le périoste permet l'insertion des tendons et des ligaments sur la surface osseuse, sa face profonde adhérant à l'os cortical par des fibres pénétrant obliquement dans l'os : les fibres de Sharpey.
 Il joue également joue un rôle pour la croissance en épaisseur de l'os cortical par une ossification de type endoconjonctive.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P%C3%A9rioste</t>
+          <t>Périoste</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le périoste est en continuité avec la virole périchondrale qui entoure l'ébauche cartilagineuse des os longs au cours de la croissance.
 </t>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P%C3%A9rioste</t>
+          <t>Périoste</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,12 +630,14 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Une augmentation de l'os cortical par excès de croissance périostée forme une hyperostose corticale.
 Le périoste peut faire l'objet d'une inflammation : la périostite.
-Le chirurgien et anatomiste Louis Xavier Edouard Léopold Ollier en 1859 avait étudié la possibilité d'utiliser la transplantation de périoste pour la production artificielle d'os[1].
-Les entorses ou foulures à répétition liées à une hyperlaxité externe de la cheville peuvent faire l'objet d'un traitement chirurgical par ligamentoplastie au périoste[2],[3] en particulier chez les sportifs[4].
+Le chirurgien et anatomiste Louis Xavier Edouard Léopold Ollier en 1859 avait étudié la possibilité d'utiliser la transplantation de périoste pour la production artificielle d'os.
+Les entorses ou foulures à répétition liées à une hyperlaxité externe de la cheville peuvent faire l'objet d'un traitement chirurgical par ligamentoplastie au périoste, en particulier chez les sportifs.
 </t>
         </is>
       </c>
